--- a/Prototypes/Barley/Observations/RS88_89_Water.xlsx
+++ b/Prototypes/Barley/Observations/RS88_89_Water.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\ApsimX\Prototypes\Barley\Observations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Barley\Observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,49 +59,49 @@
     <t>ProfileWater</t>
   </si>
   <si>
-    <t>RS1988_89IrrControl</t>
+    <t/>
   </si>
   <si>
-    <t>RS1988_89IrrEarlyDrought1</t>
+    <t>RS1988_89Control</t>
   </si>
   <si>
-    <t>RS1988_89IrrEarlyDrought2</t>
+    <t>RS1988_89EarlyDrought1</t>
   </si>
   <si>
-    <t>RS1988_89IrrEarlyDrought3</t>
+    <t>RS1988_89EarlyDrought2</t>
   </si>
   <si>
-    <t>RS1988_89IrrEarlyDrought4</t>
+    <t>RS1988_89EarlyDrought3</t>
   </si>
   <si>
-    <t>RS1988_89IrrMiddleDrought1</t>
+    <t>RS1988_89EarlyDrought4</t>
   </si>
   <si>
-    <t>RS1988_89IrrMiddleDrought2</t>
+    <t>RS1988_89MiddleDrought1</t>
   </si>
   <si>
-    <t>RS1988_89IrrMiddleDrought3</t>
+    <t>RS1988_89MiddleDrought2</t>
   </si>
   <si>
-    <t>RS1988_89IrrMiddleDrought4</t>
+    <t>RS1988_89MiddleDrought3</t>
   </si>
   <si>
-    <t>RS1988_89IrrLateDrought1</t>
+    <t>RS1988_89MiddleDrought4</t>
   </si>
   <si>
-    <t>RS1988_89IrrLateDrought2</t>
+    <t>RS1988_89LateDrought1</t>
   </si>
   <si>
-    <t>RS1988_89IrrLateDrought3</t>
+    <t>RS1988_89LateDrought2</t>
   </si>
   <si>
-    <t>RS1988_89IrrFull_OutRS</t>
+    <t>RS1988_89LateDrought3</t>
   </si>
   <si>
-    <t>RS1988_89IrrRain_OutRS</t>
+    <t>RS1988_89Full_OutRS</t>
   </si>
   <si>
-    <t/>
+    <t>RS1988_89Rain_OutRS</t>
   </si>
 </sst>
 </file>
@@ -435,17 +435,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection sqref="A1:K281"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,9 +480,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>32414</v>
@@ -515,9 +515,9 @@
         <v>401.61500000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>32414</v>
@@ -550,9 +550,9 @@
         <v>335.52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>32414</v>
@@ -585,9 +585,9 @@
         <v>332.91499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>32414</v>
@@ -620,9 +620,9 @@
         <v>330.245</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>32414</v>
@@ -655,9 +655,9 @@
         <v>361.14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>32414</v>
@@ -690,9 +690,9 @@
         <v>332.05500000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>32414</v>
@@ -725,9 +725,9 @@
         <v>361.19499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>32414</v>
@@ -760,9 +760,9 @@
         <v>350.97500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>32414</v>
@@ -795,9 +795,9 @@
         <v>346.81000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>32414</v>
@@ -830,9 +830,9 @@
         <v>347.31999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
         <v>32414</v>
@@ -865,9 +865,9 @@
         <v>334.20500000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>32414</v>
@@ -900,9 +900,9 @@
         <v>342.09500000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>32414</v>
@@ -935,9 +935,9 @@
         <v>388.07499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>32414</v>
@@ -970,9 +970,9 @@
         <v>357.20499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>32426</v>
@@ -1005,9 +1005,9 @@
         <v>419.91</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4">
         <v>32426</v>
@@ -1040,9 +1040,9 @@
         <v>334.44500000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>32426</v>
@@ -1075,9 +1075,9 @@
         <v>334.47</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>32426</v>
@@ -1110,9 +1110,9 @@
         <v>327.89500000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>32426</v>
@@ -1145,9 +1145,9 @@
         <v>367.77499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>32426</v>
@@ -1180,9 +1180,9 @@
         <v>353.21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>32426</v>
@@ -1215,9 +1215,9 @@
         <v>380.31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4">
         <v>32426</v>
@@ -1250,9 +1250,9 @@
         <v>363.07500000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4">
         <v>32426</v>
@@ -1285,9 +1285,9 @@
         <v>371.505</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>32426</v>
@@ -1320,9 +1320,9 @@
         <v>365.07499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4">
         <v>32426</v>
@@ -1355,9 +1355,9 @@
         <v>359.79999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4">
         <v>32426</v>
@@ -1390,9 +1390,9 @@
         <v>356.61500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4">
         <v>32426</v>
@@ -1425,9 +1425,9 @@
         <v>410.95500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4">
         <v>32426</v>
@@ -1460,9 +1460,9 @@
         <v>356.23</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4">
         <v>32433</v>
@@ -1495,9 +1495,9 @@
         <v>405.89499999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4">
         <v>32433</v>
@@ -1530,9 +1530,9 @@
         <v>321.83000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="4">
         <v>32433</v>
@@ -1565,9 +1565,9 @@
         <v>319.185</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4">
         <v>32433</v>
@@ -1600,9 +1600,9 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4">
         <v>32433</v>
@@ -1635,9 +1635,9 @@
         <v>351.03499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4">
         <v>32433</v>
@@ -1670,9 +1670,9 @@
         <v>341.34500000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4">
         <v>32433</v>
@@ -1705,9 +1705,9 @@
         <v>362.52499999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="4">
         <v>32433</v>
@@ -1740,9 +1740,9 @@
         <v>354.36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4">
         <v>32433</v>
@@ -1775,9 +1775,9 @@
         <v>356.33500000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" s="4">
         <v>32433</v>
@@ -1810,9 +1810,9 @@
         <v>350.68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4">
         <v>32433</v>
@@ -1845,9 +1845,9 @@
         <v>343.70500000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4">
         <v>32433</v>
@@ -1880,9 +1880,9 @@
         <v>344.70500000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4">
         <v>32433</v>
@@ -1915,9 +1915,9 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="4">
         <v>32433</v>
@@ -1950,9 +1950,9 @@
         <v>340.15999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="4">
         <v>32441</v>
@@ -1985,9 +1985,9 @@
         <v>414.18999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="4">
         <v>32441</v>
@@ -2020,9 +2020,9 @@
         <v>313.42499999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="4">
         <v>32441</v>
@@ -2055,9 +2055,9 @@
         <v>311.44000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>32441</v>
@@ -2090,9 +2090,9 @@
         <v>301.07</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="4">
         <v>32441</v>
@@ -2125,9 +2125,9 @@
         <v>341.68499999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="4">
         <v>32441</v>
@@ -2160,9 +2160,9 @@
         <v>341.96499999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="4">
         <v>32441</v>
@@ -2195,9 +2195,9 @@
         <v>368.54999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="4">
         <v>32441</v>
@@ -2230,9 +2230,9 @@
         <v>357.15499999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" s="4">
         <v>32441</v>
@@ -2265,9 +2265,9 @@
         <v>362.78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" s="4">
         <v>32441</v>
@@ -2300,9 +2300,9 @@
         <v>357.85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" s="4">
         <v>32441</v>
@@ -2335,9 +2335,9 @@
         <v>346.63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55" s="4">
         <v>32441</v>
@@ -2370,9 +2370,9 @@
         <v>342.51499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" s="4">
         <v>32441</v>
@@ -2405,9 +2405,9 @@
         <v>396.19999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" s="4">
         <v>32441</v>
@@ -2440,9 +2440,9 @@
         <v>328.65</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" s="4">
         <v>32447</v>
@@ -2475,9 +2475,9 @@
         <v>410.01</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4">
         <v>32447</v>
@@ -2510,9 +2510,9 @@
         <v>307.44</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" s="4">
         <v>32447</v>
@@ -2545,9 +2545,9 @@
         <v>305.94499999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4">
         <v>32447</v>
@@ -2580,9 +2580,9 @@
         <v>292.61500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" s="4">
         <v>32447</v>
@@ -2615,9 +2615,9 @@
         <v>335.7</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" s="4">
         <v>32447</v>
@@ -2650,9 +2650,9 @@
         <v>353.40999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" s="4">
         <v>32447</v>
@@ -2685,9 +2685,9 @@
         <v>366.38</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" s="4">
         <v>32447</v>
@@ -2720,9 +2720,9 @@
         <v>353.02499999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B66" s="4">
         <v>32447</v>
@@ -2755,9 +2755,9 @@
         <v>361.76500000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" s="4">
         <v>32447</v>
@@ -2790,9 +2790,9 @@
         <v>357.86500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B68" s="4">
         <v>32447</v>
@@ -2825,9 +2825,9 @@
         <v>350.67500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" s="4">
         <v>32447</v>
@@ -2860,9 +2860,9 @@
         <v>340.76</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" s="4">
         <v>32447</v>
@@ -2895,9 +2895,9 @@
         <v>395.53000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" s="4">
         <v>32447</v>
@@ -2930,9 +2930,9 @@
         <v>321.33500000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" s="4">
         <v>32454</v>
@@ -2965,9 +2965,9 @@
         <v>393.02</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="4">
         <v>32454</v>
@@ -3000,9 +3000,9 @@
         <v>313.48</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" s="4">
         <v>32454</v>
@@ -3035,9 +3035,9 @@
         <v>284.97500000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B75" s="4">
         <v>32454</v>
@@ -3070,9 +3070,9 @@
         <v>273.20500000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4">
         <v>32454</v>
@@ -3105,9 +3105,9 @@
         <v>313.12</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" s="4">
         <v>32454</v>
@@ -3140,9 +3140,9 @@
         <v>330.80499999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78" s="4">
         <v>32454</v>
@@ -3175,9 +3175,9 @@
         <v>346.35500000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" s="4">
         <v>32454</v>
@@ -3210,9 +3210,9 @@
         <v>333.375</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4">
         <v>32454</v>
@@ -3245,9 +3245,9 @@
         <v>340.74</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" s="4">
         <v>32454</v>
@@ -3280,9 +3280,9 @@
         <v>335.6</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" s="4">
         <v>32454</v>
@@ -3315,9 +3315,9 @@
         <v>330.89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B83" s="4">
         <v>32454</v>
@@ -3350,9 +3350,9 @@
         <v>320.60500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" s="4">
         <v>32454</v>
@@ -3385,9 +3385,9 @@
         <v>395.92499999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B85" s="4">
         <v>32454</v>
@@ -3420,9 +3420,9 @@
         <v>317.10000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="4">
         <v>32461</v>
@@ -3455,9 +3455,9 @@
         <v>405.26</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" s="4">
         <v>32461</v>
@@ -3490,9 +3490,9 @@
         <v>340.28</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88" s="4">
         <v>32461</v>
@@ -3525,9 +3525,9 @@
         <v>281.80500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" s="4">
         <v>32461</v>
@@ -3560,9 +3560,9 @@
         <v>272.47500000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" s="4">
         <v>32461</v>
@@ -3595,9 +3595,9 @@
         <v>314.02500000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B91" s="4">
         <v>32461</v>
@@ -3630,9 +3630,9 @@
         <v>313.21000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="4">
         <v>32461</v>
@@ -3665,9 +3665,9 @@
         <v>331.07500000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" s="4">
         <v>32461</v>
@@ -3700,9 +3700,9 @@
         <v>318.53999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B94" s="4">
         <v>32461</v>
@@ -3735,9 +3735,9 @@
         <v>329.14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B95" s="4">
         <v>32461</v>
@@ -3770,9 +3770,9 @@
         <v>351.44499999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" s="4">
         <v>32461</v>
@@ -3805,9 +3805,9 @@
         <v>350.90999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B97" s="4">
         <v>32461</v>
@@ -3840,9 +3840,9 @@
         <v>332.13499999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B98" s="4">
         <v>32461</v>
@@ -3875,9 +3875,9 @@
         <v>385.81999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B99" s="4">
         <v>32461</v>
@@ -3910,9 +3910,9 @@
         <v>311.14499999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100" s="4">
         <v>32468</v>
@@ -3945,9 +3945,9 @@
         <v>427.245</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="4">
         <v>32468</v>
@@ -3980,9 +3980,9 @@
         <v>368.16</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B102" s="4">
         <v>32468</v>
@@ -4015,9 +4015,9 @@
         <v>312.68</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B103" s="4">
         <v>32468</v>
@@ -4050,9 +4050,9 @@
         <v>276.27499999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" s="4">
         <v>32468</v>
@@ -4085,9 +4085,9 @@
         <v>317.79499999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B105" s="4">
         <v>32468</v>
@@ -4120,9 +4120,9 @@
         <v>310.27499999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B106" s="4">
         <v>32468</v>
@@ -4155,9 +4155,9 @@
         <v>330.20000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B107" s="4">
         <v>32468</v>
@@ -4190,9 +4190,9 @@
         <v>314.45499999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" s="4">
         <v>32468</v>
@@ -4225,9 +4225,9 @@
         <v>319.04500000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" s="4">
         <v>32468</v>
@@ -4260,9 +4260,9 @@
         <v>368.31499999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110" s="4">
         <v>32468</v>
@@ -4295,9 +4295,9 @@
         <v>367.125</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B111" s="4">
         <v>32468</v>
@@ -4330,9 +4330,9 @@
         <v>337.995</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B112" s="4">
         <v>32468</v>
@@ -4365,9 +4365,9 @@
         <v>399.375</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B113" s="4">
         <v>32468</v>
@@ -4400,9 +4400,9 @@
         <v>312.15999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B114" s="4">
         <v>32475</v>
@@ -4435,9 +4435,9 @@
         <v>417.67000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115" s="4">
         <v>32475</v>
@@ -4470,9 +4470,9 @@
         <v>365.85499999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" s="4">
         <v>32475</v>
@@ -4505,9 +4505,9 @@
         <v>329.49</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" s="4">
         <v>32475</v>
@@ -4540,9 +4540,9 @@
         <v>297.89999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" s="4">
         <v>32475</v>
@@ -4575,9 +4575,9 @@
         <v>312.23500000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B119" s="4">
         <v>32475</v>
@@ -4610,9 +4610,9 @@
         <v>334.51</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B120" s="4">
         <v>32475</v>
@@ -4645,9 +4645,9 @@
         <v>307.88499999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B121" s="4">
         <v>32475</v>
@@ -4680,9 +4680,9 @@
         <v>294.685</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B122" s="4">
         <v>32475</v>
@@ -4715,9 +4715,9 @@
         <v>299.60000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B123" s="4">
         <v>32475</v>
@@ -4750,9 +4750,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B124" s="4">
         <v>32475</v>
@@ -4785,9 +4785,9 @@
         <v>351.28499999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B125" s="4">
         <v>32475</v>
@@ -4820,9 +4820,9 @@
         <v>327.16499999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B126" s="4">
         <v>32475</v>
@@ -4855,9 +4855,9 @@
         <v>384.97500000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B127" s="4">
         <v>32475</v>
@@ -4890,9 +4890,9 @@
         <v>303.27499999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B128" s="4">
         <v>32482</v>
@@ -4925,9 +4925,9 @@
         <v>430.40999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B129" s="4">
         <v>32482</v>
@@ -4960,9 +4960,9 @@
         <v>374.94</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B130" s="4">
         <v>32482</v>
@@ -4995,9 +4995,9 @@
         <v>345.28499999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131" s="4">
         <v>32482</v>
@@ -5030,9 +5030,9 @@
         <v>320.84500000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" s="4">
         <v>32482</v>
@@ -5065,9 +5065,9 @@
         <v>326.60000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B133" s="4">
         <v>32482</v>
@@ -5100,9 +5100,9 @@
         <v>350.26</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B134" s="4">
         <v>32482</v>
@@ -5135,9 +5135,9 @@
         <v>320.67</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B135" s="4">
         <v>32482</v>
@@ -5170,9 +5170,9 @@
         <v>285.45500000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B136" s="4">
         <v>32482</v>
@@ -5205,9 +5205,9 @@
         <v>293.52</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B137" s="4">
         <v>32482</v>
@@ -5240,9 +5240,9 @@
         <v>324.83500000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B138" s="4">
         <v>32482</v>
@@ -5275,9 +5275,9 @@
         <v>336.13</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B139" s="4">
         <v>32482</v>
@@ -5310,9 +5310,9 @@
         <v>345.65</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B140" s="4">
         <v>32482</v>
@@ -5345,9 +5345,9 @@
         <v>406.78500000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B141" s="4">
         <v>32482</v>
@@ -5380,9 +5380,9 @@
         <v>302.77999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B142" s="4">
         <v>32489</v>
@@ -5415,9 +5415,9 @@
         <v>404.34000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B143" s="4">
         <v>32489</v>
@@ -5450,9 +5450,9 @@
         <v>353.59000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B144" s="4">
         <v>32489</v>
@@ -5485,9 +5485,9 @@
         <v>328.85500000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B145" s="4">
         <v>32489</v>
@@ -5520,9 +5520,9 @@
         <v>316.17500000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B146" s="4">
         <v>32489</v>
@@ -5555,9 +5555,9 @@
         <v>371.72500000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B147" s="4">
         <v>32489</v>
@@ -5590,9 +5590,9 @@
         <v>325.31500000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B148" s="4">
         <v>32489</v>
@@ -5625,9 +5625,9 @@
         <v>329.96500000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B149" s="4">
         <v>32489</v>
@@ -5660,9 +5660,9 @@
         <v>266.44</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B150" s="4">
         <v>32489</v>
@@ -5695,9 +5695,9 @@
         <v>280.70000000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B151" s="4">
         <v>32489</v>
@@ -5730,9 +5730,9 @@
         <v>292.07500000000005</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B152" s="4">
         <v>32489</v>
@@ -5765,9 +5765,9 @@
         <v>297.39</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B153" s="4">
         <v>32489</v>
@@ -5800,9 +5800,9 @@
         <v>291.76</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B154" s="4">
         <v>32489</v>
@@ -5835,9 +5835,9 @@
         <v>371.42999999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B155" s="4">
         <v>32489</v>
@@ -5870,9 +5870,9 @@
         <v>291.495</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B156" s="4">
         <v>32496</v>
@@ -5905,9 +5905,9 @@
         <v>323.95000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B157" s="4">
         <v>32496</v>
@@ -5940,9 +5940,9 @@
         <v>288.44000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B158" s="4">
         <v>32496</v>
@@ -5975,9 +5975,9 @@
         <v>274.03000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B159" s="4">
         <v>32496</v>
@@ -6010,9 +6010,9 @@
         <v>264.99</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B160" s="4">
         <v>32496</v>
@@ -6045,9 +6045,9 @@
         <v>311.33499999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B161" s="4">
         <v>32496</v>
@@ -6080,9 +6080,9 @@
         <v>267.77499999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162" s="4">
         <v>32496</v>
@@ -6115,9 +6115,9 @@
         <v>262.46999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B163" s="4">
         <v>32496</v>
@@ -6150,9 +6150,9 @@
         <v>236.88499999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B164" s="4">
         <v>32496</v>
@@ -6185,9 +6185,9 @@
         <v>210.7</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B165" s="4">
         <v>32496</v>
@@ -6220,9 +6220,9 @@
         <v>218.21499999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B166" s="4">
         <v>32496</v>
@@ -6255,9 +6255,9 @@
         <v>211.52</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B167" s="4">
         <v>32496</v>
@@ -6290,9 +6290,9 @@
         <v>212.79500000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B168" s="4">
         <v>32496</v>
@@ -6325,9 +6325,9 @@
         <v>295.83</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B169" s="4">
         <v>32496</v>
@@ -6360,9 +6360,9 @@
         <v>229.46</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B170" s="4">
         <v>32503</v>
@@ -6395,9 +6395,9 @@
         <v>324.94</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B171" s="4">
         <v>32503</v>
@@ -6430,9 +6430,9 @@
         <v>278.7</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B172" s="4">
         <v>32503</v>
@@ -6465,9 +6465,9 @@
         <v>273.64</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B173" s="4">
         <v>32503</v>
@@ -6500,9 +6500,9 @@
         <v>272.27499999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B174" s="4">
         <v>32503</v>
@@ -6535,9 +6535,9 @@
         <v>326.78499999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B175" s="4">
         <v>32503</v>
@@ -6570,9 +6570,9 @@
         <v>273.01</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B176" s="4">
         <v>32503</v>
@@ -6605,9 +6605,9 @@
         <v>272.375</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B177" s="4">
         <v>32503</v>
@@ -6640,9 +6640,9 @@
         <v>259.60500000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B178" s="4">
         <v>32503</v>
@@ -6675,9 +6675,9 @@
         <v>185.875</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B179" s="4">
         <v>32503</v>
@@ -6710,9 +6710,9 @@
         <v>214.655</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B180" s="4">
         <v>32503</v>
@@ -6745,9 +6745,9 @@
         <v>205.88</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B181" s="4">
         <v>32503</v>
@@ -6780,9 +6780,9 @@
         <v>207.45500000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B182" s="4">
         <v>32503</v>
@@ -6815,9 +6815,9 @@
         <v>292.17500000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B183" s="4">
         <v>32503</v>
@@ -6850,9 +6850,9 @@
         <v>227.19499999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" s="4">
         <v>32518</v>
@@ -6885,9 +6885,9 @@
         <v>302.55500000000006</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B185" s="4">
         <v>32518</v>
@@ -6920,9 +6920,9 @@
         <v>261.52999999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B186" s="4">
         <v>32518</v>
@@ -6955,9 +6955,9 @@
         <v>253.90999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B187" s="4">
         <v>32518</v>
@@ -6990,9 +6990,9 @@
         <v>259.52999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B188" s="4">
         <v>32518</v>
@@ -7025,9 +7025,9 @@
         <v>323.06</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B189" s="4">
         <v>32518</v>
@@ -7060,9 +7060,9 @@
         <v>264.39999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B190" s="4">
         <v>32518</v>
@@ -7095,9 +7095,9 @@
         <v>274.40999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B191" s="4">
         <v>32518</v>
@@ -7130,9 +7130,9 @@
         <v>274.77</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B192" s="4">
         <v>32518</v>
@@ -7165,9 +7165,9 @@
         <v>208.39499999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B193" s="4">
         <v>32518</v>
@@ -7200,9 +7200,9 @@
         <v>206.095</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B194" s="4">
         <v>32518</v>
@@ -7235,9 +7235,9 @@
         <v>196.315</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B195" s="4">
         <v>32518</v>
@@ -7270,9 +7270,9 @@
         <v>200.18</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B196" s="4">
         <v>32518</v>
@@ -7305,9 +7305,9 @@
         <v>270.375</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B197" s="4">
         <v>32518</v>
@@ -7340,44 +7340,44 @@
         <v>231.28500000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B198" s="4">
         <v>32524</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" s="4">
         <v>32524</v>
@@ -7410,9 +7410,9 @@
         <v>264.77499999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B200" s="4">
         <v>32524</v>
@@ -7445,9 +7445,9 @@
         <v>258.52499999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B201" s="4">
         <v>32524</v>
@@ -7480,9 +7480,9 @@
         <v>262.005</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B202" s="4">
         <v>32524</v>
@@ -7515,359 +7515,359 @@
         <v>327.72</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B203" s="4">
         <v>32524</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B204" s="4">
         <v>32524</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B205" s="4">
         <v>32524</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B206" s="4">
         <v>32524</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B207" s="4">
         <v>32524</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B208" s="4">
         <v>32524</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B209" s="4">
         <v>32524</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B210" s="4">
         <v>32524</v>
       </c>
       <c r="C210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J210" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B211" s="4">
         <v>32524</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B212" s="4">
         <v>32531</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B213" s="4">
         <v>32531</v>
@@ -7900,9 +7900,9 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" s="4">
         <v>32531</v>
@@ -7935,9 +7935,9 @@
         <v>261.81</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B215" s="4">
         <v>32531</v>
@@ -7970,9 +7970,9 @@
         <v>262.17</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B216" s="4">
         <v>32531</v>
@@ -8005,394 +8005,394 @@
         <v>321.97500000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B217" s="4">
         <v>32531</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B218" s="4">
         <v>32531</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B219" s="4">
         <v>32531</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B220" s="4">
         <v>32531</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B221" s="4">
         <v>32531</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B222" s="4">
         <v>32531</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B223" s="4">
         <v>32531</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B224" s="4">
         <v>32531</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J224" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K224" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B225" s="4">
         <v>32531</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B226" s="4">
         <v>32538</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B227" s="4">
         <v>32538</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B228" s="4">
         <v>32538</v>
@@ -8425,9 +8425,9 @@
         <v>262.80500000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B229" s="4">
         <v>32538</v>
@@ -8460,9 +8460,9 @@
         <v>252.64499999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B230" s="4">
         <v>32538</v>
@@ -8495,429 +8495,429 @@
         <v>327.22999999999996</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B231" s="4">
         <v>32538</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B232" s="4">
         <v>32538</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B233" s="4">
         <v>32538</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B234" s="4">
         <v>32538</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B235" s="4">
         <v>32538</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B236" s="4">
         <v>32538</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B237" s="4">
         <v>32538</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B238" s="4">
         <v>32538</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K238" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B239" s="4">
         <v>32538</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B240" s="4">
         <v>32546</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B241" s="4">
         <v>32546</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B242" s="4">
         <v>32546</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B243" s="4">
         <v>32546</v>
@@ -8950,9 +8950,9 @@
         <v>242.62</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B244" s="4">
         <v>32546</v>
@@ -8985,464 +8985,464 @@
         <v>317.31</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B245" s="4">
         <v>32546</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B246" s="4">
         <v>32546</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B247" s="4">
         <v>32546</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B248" s="4">
         <v>32546</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B249" s="4">
         <v>32546</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B250" s="4">
         <v>32546</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B251" s="4">
         <v>32546</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B252" s="4">
         <v>32546</v>
       </c>
       <c r="C252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J252" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K252" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B253" s="4">
         <v>32546</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B254" s="4">
         <v>32552</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B255" s="4">
         <v>32552</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B256" s="4">
         <v>32552</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B257" s="4">
         <v>32552</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B258" s="4">
         <v>32552</v>
@@ -9475,464 +9475,464 @@
         <v>317.02999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B259" s="4">
         <v>32552</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B260" s="4">
         <v>32552</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B261" s="4">
         <v>32552</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B262" s="4">
         <v>32552</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B263" s="4">
         <v>32552</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B264" s="4">
         <v>32552</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B265" s="4">
         <v>32552</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B266" s="4">
         <v>32552</v>
       </c>
       <c r="C266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J266" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B267" s="4">
         <v>32552</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B268" s="4">
         <v>32560</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B269" s="4">
         <v>32560</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B270" s="4">
         <v>32560</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B271" s="4">
         <v>32560</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B272" s="4">
         <v>32560</v>
@@ -9965,319 +9965,319 @@
         <v>306.19</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B273" s="4">
         <v>32560</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B274" s="4">
         <v>32560</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B275" s="4">
         <v>32560</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B276" s="4">
         <v>32560</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B277" s="4">
         <v>32560</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B278" s="4">
         <v>32560</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B279" s="4">
         <v>32560</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B280" s="4">
         <v>32560</v>
       </c>
       <c r="C280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B281" s="4">
         <v>32560</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Barley/Observations/RS88_89_Water.xlsx
+++ b/Prototypes/Barley/Observations/RS88_89_Water.xlsx
@@ -62,46 +62,46 @@
     <t/>
   </si>
   <si>
-    <t>RS1988_89Control</t>
+    <t>RS1988_89IrrControl</t>
   </si>
   <si>
-    <t>RS1988_89EarlyDrought1</t>
+    <t>RS1988_89IrrEarlyDrought1</t>
   </si>
   <si>
-    <t>RS1988_89EarlyDrought2</t>
+    <t>RS1988_89IrrEarlyDrought2</t>
   </si>
   <si>
-    <t>RS1988_89EarlyDrought3</t>
+    <t>RS1988_89IrrEarlyDrought3</t>
   </si>
   <si>
-    <t>RS1988_89EarlyDrought4</t>
+    <t>RS1988_89IrrEarlyDrought4</t>
   </si>
   <si>
-    <t>RS1988_89MiddleDrought1</t>
+    <t>RS1988_89IrrMiddleDrought1</t>
   </si>
   <si>
-    <t>RS1988_89MiddleDrought2</t>
+    <t>RS1988_89IrrMiddleDrought2</t>
   </si>
   <si>
-    <t>RS1988_89MiddleDrought3</t>
+    <t>RS1988_89IrrMiddleDrought3</t>
   </si>
   <si>
-    <t>RS1988_89MiddleDrought4</t>
+    <t>RS1988_89IrrMiddleDrought4</t>
   </si>
   <si>
-    <t>RS1988_89LateDrought1</t>
+    <t>RS1988_89IrrLateDrought1</t>
   </si>
   <si>
-    <t>RS1988_89LateDrought2</t>
+    <t>RS1988_89IrrLateDrought2</t>
   </si>
   <si>
-    <t>RS1988_89LateDrought3</t>
+    <t>RS1988_89IrrLateDrought3</t>
   </si>
   <si>
-    <t>RS1988_89Full_OutRS</t>
+    <t>RS1988_89IrrFull_OutRS</t>
   </si>
   <si>
-    <t>RS1988_89Rain_OutRS</t>
+    <t>RS1988_89IrrRain_OutRS</t>
   </si>
 </sst>
 </file>
